--- a/Table_Rate.xlsx
+++ b/Table_Rate.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Table</t>
   </si>
   <si>
     <t>Item</t>
+  </si>
+  <si>
+    <t>Work_Unit</t>
   </si>
   <si>
     <t>To_Year_1</t>
@@ -1089,40 +1092,40 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="7.28571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4285714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28571428571429" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.8571428571429" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.28571428571429" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.8571428571429" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.28571428571429" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.8571428571429" style="3" customWidth="1"/>
-    <col min="14" max="14" width="7.28571428571429" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.8571428571429" style="3" customWidth="1"/>
-    <col min="16" max="16" width="7.28571428571429" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.8571428571429" style="3" customWidth="1"/>
-    <col min="18" max="18" width="7.28571428571429" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.8571428571429" style="3" customWidth="1"/>
-    <col min="20" max="20" width="7.28571428571429" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.1428571428571" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.42857142857143" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="3"/>
+    <col min="2" max="3" width="10.4285714285714" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28571428571429" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.8571428571429" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.28571428571429" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.8571428571429" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.28571428571429" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.8571428571429" style="3" customWidth="1"/>
+    <col min="15" max="15" width="7.28571428571429" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.8571428571429" style="3" customWidth="1"/>
+    <col min="17" max="17" width="7.28571428571429" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.8571428571429" style="3" customWidth="1"/>
+    <col min="19" max="19" width="7.28571428571429" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.8571428571429" style="3" customWidth="1"/>
+    <col min="21" max="21" width="7.28571428571429" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.1428571428571" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.42857142857143" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:22">
+    <row r="1" ht="18.75" customHeight="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1189,37 +1192,38 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:22">
+    <row r="2" ht="18.75" customHeight="1" spans="1:23">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>12</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>123</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>123</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>31</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>13</v>
-      </c>
-      <c r="J2" s="7">
-        <v>123</v>
       </c>
       <c r="K2" s="7">
         <v>123</v>
@@ -1227,7 +1231,9 @@
       <c r="L2" s="7">
         <v>123</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="7">
+        <v>123</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -1237,48 +1243,49 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:22">
+    <row r="3" ht="18.75" customHeight="1" spans="1:23">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
         <v>312</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>3123</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>341</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>412</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>312</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>312</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>3</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>3123</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>123</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>213</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>123</v>
       </c>
-      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1287,72 +1294,74 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:22">
+    <row r="4" ht="18.75" customHeight="1" spans="1:23">
       <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>312</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3123</v>
+      </c>
+      <c r="F4" s="6">
+        <v>341</v>
+      </c>
+      <c r="G4" s="5">
+        <v>412</v>
+      </c>
+      <c r="H4" s="6">
+        <v>312</v>
+      </c>
+      <c r="I4" s="7">
+        <v>312</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7">
+        <v>3123</v>
+      </c>
+      <c r="L4" s="7">
+        <v>123</v>
+      </c>
+      <c r="M4" s="7">
+        <v>213</v>
+      </c>
+      <c r="N4" s="7">
+        <v>123</v>
+      </c>
+      <c r="O4" s="4">
+        <v>312</v>
+      </c>
+      <c r="P4" s="4">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>221</v>
+      </c>
+      <c r="R4" s="6">
+        <v>33</v>
+      </c>
+      <c r="S4" s="6">
+        <v>11</v>
+      </c>
+      <c r="T4" s="7">
+        <v>33</v>
+      </c>
+      <c r="U4" s="7">
+        <v>13</v>
+      </c>
+      <c r="V4" s="7">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4">
-        <v>312</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3123</v>
-      </c>
-      <c r="E4" s="6">
-        <v>341</v>
-      </c>
-      <c r="F4" s="5">
-        <v>412</v>
-      </c>
-      <c r="G4" s="6">
-        <v>312</v>
-      </c>
-      <c r="H4" s="7">
-        <v>312</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>3123</v>
-      </c>
-      <c r="K4" s="7">
-        <v>123</v>
-      </c>
-      <c r="L4" s="7">
-        <v>213</v>
-      </c>
-      <c r="M4" s="7">
-        <v>123</v>
-      </c>
-      <c r="N4" s="4">
-        <v>312</v>
-      </c>
-      <c r="O4" s="4">
-        <v>33</v>
-      </c>
-      <c r="P4" s="5">
-        <v>221</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>33</v>
-      </c>
-      <c r="R4" s="6">
-        <v>11</v>
-      </c>
-      <c r="S4" s="7">
-        <v>33</v>
-      </c>
-      <c r="T4" s="7">
-        <v>13</v>
-      </c>
-      <c r="U4" s="7">
-        <v>22</v>
-      </c>
-      <c r="V4" s="7">
+      <c r="W4" s="7">
         <v>12</v>
       </c>
     </row>
